--- a/CRA/201703- FCH - releveActivite.xlsx
+++ b/CRA/201703- FCH - releveActivite.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\CloudDocuments\CRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,24 +114,12 @@
     <t>durée totale de la prestation (jours)</t>
   </si>
   <si>
-    <t>Transfert connaissance uplink Phillippe (uplink + support)</t>
-  </si>
-  <si>
-    <t>atelier EDI + préparation ppt + maj doc sharepoint</t>
-  </si>
-  <si>
-    <t>support mcd</t>
-  </si>
-  <si>
     <t>supprot mcd</t>
   </si>
   <si>
     <t>transfert connaissance phillippe support multisiren</t>
   </si>
   <si>
-    <t xml:space="preserve">implem table ID intermediaires + script récup dossiers+ code remplissage </t>
-  </si>
-  <si>
     <t>durée de réalisation (jours)</t>
   </si>
   <si>
@@ -174,13 +162,25 @@
     <t>Modifs vue dpec et cpro, datmodif facture, session et statuts</t>
   </si>
   <si>
-    <t xml:space="preserve">Test API v2 (cpro, salaries, tuteurs) </t>
-  </si>
-  <si>
-    <t>redac procedure mise en prod</t>
-  </si>
-  <si>
     <t>Date et Signature du prestataire</t>
+  </si>
+  <si>
+    <t>Modif VUES cpro(tuteur) et salarie classif</t>
+  </si>
+  <si>
+    <t>M à J des scripts de déploiement en prod (ajout source + commentaire)</t>
+  </si>
+  <si>
+    <t>Debug Vue Sal + Cpro tuteur + RDV MEP + prep RedMines pour MEP</t>
+  </si>
+  <si>
+    <t>Clarrification/Communication autour des CPRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redac procedure mise en prod + Test API v2 (cpro, salaries, tuteurs) </t>
+  </si>
+  <si>
+    <t>fix erreur 242 + transfert connaissance + suivi RedMines + mise en test Api</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -591,43 +591,52 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -945,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,12 +982,12 @@
     </row>
     <row r="2" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1018,7 +1027,7 @@
       </c>
       <c r="C6" s="38"/>
       <c r="E6" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1028,8 +1037,8 @@
         <v>28</v>
       </c>
       <c r="B7" s="32">
-        <f>SUM(F11:F42)</f>
-        <v>20</v>
+        <f>SUM(F11:F45)</f>
+        <v>19.75</v>
       </c>
       <c r="C7" s="38"/>
       <c r="E7" s="6" t="s">
@@ -1055,11 +1064,11 @@
       <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="30" t="s">
         <v>25</v>
       </c>
@@ -1067,7 +1076,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G10" s="42" t="s">
         <v>24</v>
@@ -1081,11 +1090,11 @@
       <c r="N10" s="16"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="34">
         <f>B4</f>
         <v>42795</v>
@@ -1119,23 +1128,23 @@
       <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
+      <c r="A13" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="34">
         <v>42800</v>
       </c>
       <c r="E13" s="44" t="str">
-        <f t="shared" ref="E13:E18" si="0">TEXT(D13,"jjjj")</f>
+        <f t="shared" ref="E13:E17" si="0">TEXT(D13,"jjjj")</f>
         <v>lundi</v>
       </c>
       <c r="F13" s="33">
         <v>1</v>
       </c>
       <c r="G13" s="53">
-        <f t="shared" ref="G13:G29" si="1">WEEKNUM(D13,2)</f>
+        <f>WEEKNUM(D13,2)</f>
         <v>11</v>
       </c>
       <c r="H13" s="16"/>
@@ -1147,11 +1156,11 @@
       <c r="N13" s="16"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
+      <c r="A14" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="34">
         <v>42801</v>
       </c>
@@ -1165,11 +1174,11 @@
       <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
+      <c r="A15" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="34">
         <v>42802</v>
       </c>
@@ -1183,11 +1192,11 @@
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
+      <c r="A16" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="34">
         <v>42803</v>
       </c>
@@ -1201,11 +1210,11 @@
       <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="34">
         <v>42804</v>
       </c>
@@ -1214,109 +1223,109 @@
         <v>vendredi</v>
       </c>
       <c r="F17" s="33">
+        <v>1</v>
+      </c>
+      <c r="G17" s="54"/>
+    </row>
+    <row r="18" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="41"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="34">
+        <v>42807</v>
+      </c>
+      <c r="E19" s="44" t="str">
+        <f t="shared" ref="E19:E38" si="1">TEXT(D19,"jjjj")</f>
+        <v>lundi</v>
+      </c>
+      <c r="F19" s="33">
+        <v>1</v>
+      </c>
+      <c r="G19" s="53">
+        <f t="shared" ref="G19:G32" si="2">WEEKNUM(D19,2)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="34">
+        <v>42808</v>
+      </c>
+      <c r="E20" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>mardi</v>
+      </c>
+      <c r="F20" s="33">
         <v>0.5</v>
       </c>
-      <c r="G17" s="54"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="G20" s="54"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="34">
+        <v>42809</v>
+      </c>
+      <c r="E21" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>mercredi</v>
+      </c>
+      <c r="F21" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="54"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="34">
+        <v>42810</v>
+      </c>
+      <c r="E22" s="44" t="str">
+        <f t="shared" ref="E22" si="3">TEXT(D22,"jjjj")</f>
+        <v>jeudi</v>
+      </c>
+      <c r="F22" s="33">
+        <v>1</v>
+      </c>
+      <c r="G22" s="54"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="34">
-        <v>42804</v>
-      </c>
-      <c r="E18" s="44" t="str">
-        <f t="shared" si="0"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="34">
+        <v>42811</v>
+      </c>
+      <c r="E23" s="44" t="str">
+        <f t="shared" si="1"/>
         <v>vendredi</v>
       </c>
-      <c r="F18" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="55"/>
-    </row>
-    <row r="19" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="41"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="34">
-        <v>42807</v>
-      </c>
-      <c r="E20" s="44" t="str">
-        <f t="shared" ref="E20:E35" si="2">TEXT(D20,"jjjj")</f>
-        <v>lundi</v>
-      </c>
-      <c r="F20" s="33">
-        <v>1</v>
-      </c>
-      <c r="G20" s="53">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="34">
-        <v>42808</v>
-      </c>
-      <c r="E21" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>mardi</v>
-      </c>
-      <c r="F21" s="33">
-        <v>1</v>
-      </c>
-      <c r="G21" s="54"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="34">
-        <v>42809</v>
-      </c>
-      <c r="E22" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>mercredi</v>
-      </c>
-      <c r="F22" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="54"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="34">
-        <v>42810</v>
-      </c>
-      <c r="E23" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>jeudi</v>
-      </c>
       <c r="F23" s="33">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G23" s="55"/>
     </row>
@@ -1330,426 +1339,471 @@
       <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
+      <c r="A25" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="34">
-        <v>42774</v>
+        <v>42814</v>
       </c>
       <c r="E25" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>mercredi</v>
+        <f t="shared" si="1"/>
+        <v>lundi</v>
       </c>
       <c r="F25" s="33">
         <v>1</v>
       </c>
       <c r="G25" s="53">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="34">
+        <v>42815</v>
+      </c>
+      <c r="E26" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="34">
-        <v>42775</v>
-      </c>
-      <c r="E26" s="44" t="str">
-        <f t="shared" si="2"/>
+        <v>mardi</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="54"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="34">
+        <v>42816</v>
+      </c>
+      <c r="E27" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>mercredi</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="54"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="60"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="34">
+        <v>42817</v>
+      </c>
+      <c r="E28" s="44" t="str">
+        <f t="shared" si="1"/>
         <v>jeudi</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F28" s="33"/>
+      <c r="G28" s="54"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="34">
+        <v>42818</v>
+      </c>
+      <c r="E29" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>vendredi</v>
+      </c>
+      <c r="F29" s="33">
         <v>1</v>
       </c>
-      <c r="G26" s="54"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="34">
-        <v>42776</v>
-      </c>
-      <c r="E27" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>vendredi</v>
-      </c>
-      <c r="F27" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G27" s="55"/>
-    </row>
-    <row r="28" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="41"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="34">
-        <v>42779</v>
-      </c>
-      <c r="E29" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>lundi</v>
-      </c>
-      <c r="F29" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G29" s="53">
+      <c r="G29" s="54"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="34">
+        <v>42819</v>
+      </c>
+      <c r="E30" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="34">
-        <v>42782</v>
-      </c>
-      <c r="E30" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>jeudi</v>
+        <v>samedi</v>
       </c>
       <c r="F30" s="33">
         <v>0.5</v>
       </c>
-      <c r="G30" s="54"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="34">
-        <v>42783</v>
-      </c>
-      <c r="E31" s="44" t="str">
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="41"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="34">
+        <v>42779</v>
+      </c>
+      <c r="E32" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>lundi</v>
+      </c>
+      <c r="F32" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="53">
         <f t="shared" si="2"/>
-        <v>vendredi</v>
-      </c>
-      <c r="F31" s="33">
-        <v>1</v>
-      </c>
-      <c r="G31" s="55"/>
-    </row>
-    <row r="32" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="41"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
+      <c r="A33" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="34">
-        <v>42779</v>
+        <v>42782</v>
       </c>
       <c r="E33" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>lundi</v>
+        <f t="shared" si="1"/>
+        <v>jeudi</v>
       </c>
       <c r="F33" s="33">
         <v>0.5</v>
       </c>
-      <c r="G33" s="53">
-        <f t="shared" ref="G33" si="3">WEEKNUM(D33,2)</f>
+      <c r="G33" s="54"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="34">
+        <v>42783</v>
+      </c>
+      <c r="E34" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>vendredi</v>
+      </c>
+      <c r="F34" s="33">
+        <v>1</v>
+      </c>
+      <c r="G34" s="55"/>
+    </row>
+    <row r="35" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="41"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="34">
+        <v>42779</v>
+      </c>
+      <c r="E36" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>lundi</v>
+      </c>
+      <c r="F36" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="53">
+        <f t="shared" ref="G36" si="4">WEEKNUM(D36,2)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="34">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="34">
         <v>42782</v>
       </c>
-      <c r="E34" s="44" t="str">
-        <f t="shared" si="2"/>
+      <c r="E37" s="44" t="str">
+        <f t="shared" si="1"/>
         <v>jeudi</v>
-      </c>
-      <c r="F34" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G34" s="54"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="34">
-        <v>42783</v>
-      </c>
-      <c r="E35" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>vendredi</v>
-      </c>
-      <c r="F35" s="33">
-        <v>1</v>
-      </c>
-      <c r="G35" s="55"/>
-    </row>
-    <row r="36" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="41"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="34">
-        <v>42786</v>
-      </c>
-      <c r="E37" s="44" t="str">
-        <f>TEXT(D37,"jjjj")</f>
-        <v>lundi</v>
       </c>
       <c r="F37" s="33">
         <v>0.5</v>
       </c>
-      <c r="G37" s="59">
-        <f t="shared" ref="G37" si="4">WEEKNUM(D37,2)</f>
-        <v>9</v>
-      </c>
+      <c r="G37" s="54"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
+      <c r="A38" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="34">
-        <v>42787</v>
+        <v>42783</v>
       </c>
       <c r="E38" s="44" t="str">
-        <f>TEXT(D38,"jjjj")</f>
-        <v>mardi</v>
+        <f t="shared" si="1"/>
+        <v>vendredi</v>
       </c>
       <c r="F38" s="33">
         <v>1</v>
       </c>
-      <c r="G38" s="59"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="34">
-        <v>42788</v>
-      </c>
-      <c r="E39" s="44" t="str">
-        <f>TEXT(D39,"jjjj")</f>
-        <v>mercredi</v>
-      </c>
-      <c r="F39" s="33">
-        <v>1</v>
-      </c>
-      <c r="G39" s="59"/>
-    </row>
-    <row r="40" spans="1:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="41"/>
+      <c r="G38" s="55"/>
+    </row>
+    <row r="39" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="41"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="34">
+        <v>42786</v>
+      </c>
+      <c r="E40" s="44" t="str">
+        <f>TEXT(D40,"jjjj")</f>
+        <v>lundi</v>
+      </c>
+      <c r="F40" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="50">
+        <f t="shared" ref="G40" si="5">WEEKNUM(D40,2)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="58"/>
+      <c r="A41" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="34">
-        <v>42793</v>
+        <v>42787</v>
       </c>
       <c r="E41" s="44" t="str">
         <f>TEXT(D41,"jjjj")</f>
-        <v>lundi</v>
+        <v>mardi</v>
       </c>
       <c r="F41" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G41" s="59">
-        <f t="shared" ref="G41" si="5">WEEKNUM(D41,2)</f>
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G41" s="50"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
+      <c r="A42" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="34">
-        <v>42794</v>
+        <v>42788</v>
       </c>
       <c r="E42" s="44" t="str">
         <f>TEXT(D42,"jjjj")</f>
-        <v>mardi</v>
+        <v>mercredi</v>
       </c>
       <c r="F42" s="33">
         <v>1</v>
       </c>
-      <c r="G42" s="59"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="G42" s="50"/>
+    </row>
+    <row r="43" spans="1:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="41"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="34">
+        <v>42793</v>
+      </c>
+      <c r="E44" s="44" t="str">
+        <f>TEXT(D44,"jjjj")</f>
+        <v>lundi</v>
+      </c>
+      <c r="F44" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="50">
+        <f t="shared" ref="G44" si="6">WEEKNUM(D44,2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="34">
+        <v>42794</v>
+      </c>
+      <c r="E45" s="44" t="str">
+        <f>TEXT(D45,"jjjj")</f>
+        <v>mardi</v>
+      </c>
+      <c r="F45" s="33">
+        <v>1</v>
+      </c>
+      <c r="G45" s="50"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
         <v>1</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="12"/>
+      <c r="D52" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
     </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="A26:C26"/>
+  <mergeCells count="37">
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G25:G30"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
   </mergeCells>
   <pageMargins left="0.37137681159420288" right="0.15625" top="0.48958333333333331" bottom="0.33088235294117646" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CRA/201703- FCH - releveActivite.xlsx
+++ b/CRA/201703- FCH - releveActivite.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Florian CHAUMEIL</t>
   </si>
@@ -114,39 +114,12 @@
     <t>durée totale de la prestation (jours)</t>
   </si>
   <si>
-    <t>supprot mcd</t>
-  </si>
-  <si>
-    <t>transfert connaissance phillippe support multisiren</t>
-  </si>
-  <si>
     <t>durée de réalisation (jours)</t>
   </si>
   <si>
-    <t>mise à jour Vue Salarie champs civilité et nom de naissance</t>
-  </si>
-  <si>
     <t>Responsable des SI</t>
   </si>
   <si>
-    <t>debug affichage salarie avec globalis + debug classification doublon mcd</t>
-  </si>
-  <si>
-    <t>Test API mass: grp fin, option, conv. Insert massif des ids intermediaires</t>
-  </si>
-  <si>
-    <t>specs nettoyage mcd + suivi redmines</t>
-  </si>
-  <si>
-    <t>adapt synchro  COUTs avec ID entreprise + coordination redmines</t>
-  </si>
-  <si>
-    <t>tests recette attdif et bulsal + prep prod pour attdif (.config et piece_pec)</t>
-  </si>
-  <si>
-    <t>diagnostique + fix erreurs saisie + recup documents en erreur</t>
-  </si>
-  <si>
     <t>diagnostique fix prod attdif en collaboration avec Benoit</t>
   </si>
   <si>
@@ -180,7 +153,28 @@
     <t xml:space="preserve">redac procedure mise en prod + Test API v2 (cpro, salaries, tuteurs) </t>
   </si>
   <si>
-    <t>fix erreur 242 + transfert connaissance + suivi RedMines + mise en test Api</t>
+    <t>fix erreur 242 + transfert connaissance erreur + suivi RedMines + test Api</t>
+  </si>
+  <si>
+    <t>mod vuestage extern/intern + test synch avec JLuc + fix synch dpec 2012</t>
+  </si>
+  <si>
+    <t>Ajout Couts modules_Pro + support diagnostique bug document optiform</t>
+  </si>
+  <si>
+    <t>etude mixup prod/rct + suivi Redmine + transfert connaissance Philippe</t>
+  </si>
+  <si>
+    <t>debug cpfHTT + modif code synchro</t>
+  </si>
+  <si>
+    <t>diagnostique visu module pro, clarifiaction du travail à faire + modif code</t>
+  </si>
+  <si>
+    <t>maj vue module pro intitulé+recup doc attdif + suivi redmine</t>
+  </si>
+  <si>
+    <t>Test MEP + modif vue synchro + adaptation code et debug</t>
   </si>
 </sst>
 </file>
@@ -505,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -579,17 +573,38 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -600,24 +615,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -626,18 +623,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -954,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:C27"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,12 +967,12 @@
     </row>
     <row r="2" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1008,7 +993,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="36">
-        <v>42824</v>
+        <v>42825</v>
       </c>
       <c r="C5" s="37"/>
       <c r="E5" s="6" t="s">
@@ -1023,11 +1008,11 @@
       </c>
       <c r="B6" s="25">
         <f>NETWORKDAYS(B4,B5)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="38"/>
       <c r="E6" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1037,8 +1022,8 @@
         <v>28</v>
       </c>
       <c r="B7" s="32">
-        <f>SUM(F11:F45)</f>
-        <v>19.75</v>
+        <f>SUM(F11:F34)</f>
+        <v>16.5</v>
       </c>
       <c r="C7" s="38"/>
       <c r="E7" s="6" t="s">
@@ -1064,11 +1049,11 @@
       <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="30" t="s">
         <v>25</v>
       </c>
@@ -1076,7 +1061,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" s="42" t="s">
         <v>24</v>
@@ -1090,23 +1075,23 @@
       <c r="N10" s="16"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
+      <c r="A11" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="34">
         <f>B4</f>
         <v>42795</v>
       </c>
-      <c r="E11" s="44" t="str">
+      <c r="E11" s="43" t="str">
         <f>TEXT(D11,"jjjj")</f>
         <v>mercredi</v>
       </c>
       <c r="F11" s="33">
         <v>2.5</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="46">
         <f>WEEKNUM(D11,2)</f>
         <v>10</v>
       </c>
@@ -1123,27 +1108,27 @@
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
       <c r="D12" s="39"/>
-      <c r="E12" s="45"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="39"/>
       <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
+      <c r="A13" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="34">
         <v>42800</v>
       </c>
-      <c r="E13" s="44" t="str">
+      <c r="E13" s="43" t="str">
         <f t="shared" ref="E13:E17" si="0">TEXT(D13,"jjjj")</f>
         <v>lundi</v>
       </c>
       <c r="F13" s="33">
         <v>1</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="50">
         <f>WEEKNUM(D13,2)</f>
         <v>11</v>
       </c>
@@ -1156,619 +1141,455 @@
       <c r="N13" s="16"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
+      <c r="A14" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="34">
         <v>42801</v>
       </c>
-      <c r="E14" s="44" t="str">
+      <c r="E14" s="43" t="str">
         <f t="shared" si="0"/>
         <v>mardi</v>
       </c>
       <c r="F14" s="33">
         <v>0.5</v>
       </c>
-      <c r="G14" s="54"/>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
+      <c r="A15" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="34">
         <v>42802</v>
       </c>
-      <c r="E15" s="44" t="str">
+      <c r="E15" s="43" t="str">
         <f t="shared" si="0"/>
         <v>mercredi</v>
       </c>
       <c r="F15" s="33">
         <v>0.5</v>
       </c>
-      <c r="G15" s="54"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
+      <c r="A16" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="34">
         <v>42803</v>
       </c>
-      <c r="E16" s="44" t="str">
+      <c r="E16" s="43" t="str">
         <f t="shared" si="0"/>
         <v>jeudi</v>
       </c>
       <c r="F16" s="33">
         <v>0.5</v>
       </c>
-      <c r="G16" s="54"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
+      <c r="A17" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="34">
         <v>42804</v>
       </c>
-      <c r="E17" s="44" t="str">
+      <c r="E17" s="43" t="str">
         <f t="shared" si="0"/>
         <v>vendredi</v>
       </c>
       <c r="F17" s="33">
         <v>1</v>
       </c>
-      <c r="G17" s="54"/>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="46"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="39"/>
       <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="34">
         <v>42807</v>
       </c>
-      <c r="E19" s="44" t="str">
-        <f t="shared" ref="E19:E38" si="1">TEXT(D19,"jjjj")</f>
+      <c r="E19" s="43" t="str">
+        <f t="shared" ref="E19:E33" si="1">TEXT(D19,"jjjj")</f>
         <v>lundi</v>
       </c>
       <c r="F19" s="33">
         <v>1</v>
       </c>
-      <c r="G19" s="53">
-        <f t="shared" ref="G19:G32" si="2">WEEKNUM(D19,2)</f>
+      <c r="G19" s="51">
+        <f t="shared" ref="G19:G30" si="2">WEEKNUM(D19,2)</f>
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
+      <c r="A20" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="34">
         <v>42808</v>
       </c>
-      <c r="E20" s="44" t="str">
+      <c r="E20" s="43" t="str">
         <f t="shared" si="1"/>
         <v>mardi</v>
       </c>
       <c r="F20" s="33">
         <v>0.5</v>
       </c>
-      <c r="G20" s="54"/>
+      <c r="G20" s="52"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
+      <c r="A21" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="34">
         <v>42809</v>
       </c>
-      <c r="E21" s="44" t="str">
+      <c r="E21" s="43" t="str">
         <f t="shared" si="1"/>
         <v>mercredi</v>
       </c>
       <c r="F21" s="33">
         <v>0.5</v>
       </c>
-      <c r="G21" s="54"/>
+      <c r="G21" s="52"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
+      <c r="A22" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="34">
         <v>42810</v>
       </c>
-      <c r="E22" s="44" t="str">
+      <c r="E22" s="43" t="str">
         <f t="shared" ref="E22" si="3">TEXT(D22,"jjjj")</f>
         <v>jeudi</v>
       </c>
       <c r="F22" s="33">
         <v>1</v>
       </c>
-      <c r="G22" s="54"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
+      <c r="A23" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="34">
         <v>42811</v>
       </c>
-      <c r="E23" s="44" t="str">
+      <c r="E23" s="43" t="str">
         <f t="shared" si="1"/>
         <v>vendredi</v>
       </c>
       <c r="F23" s="33">
-        <v>0.25</v>
-      </c>
-      <c r="G23" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="45"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="39"/>
       <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
+      <c r="A25" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="34">
         <v>42814</v>
       </c>
-      <c r="E25" s="44" t="str">
+      <c r="E25" s="43" t="str">
         <f t="shared" si="1"/>
         <v>lundi</v>
       </c>
       <c r="F25" s="33">
         <v>1</v>
       </c>
-      <c r="G25" s="53">
+      <c r="G25" s="50">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
+      <c r="A26" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="34">
         <v>42815</v>
       </c>
-      <c r="E26" s="44" t="str">
+      <c r="E26" s="43" t="str">
         <f t="shared" si="1"/>
         <v>mardi</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="54"/>
+      <c r="F26" s="33">
+        <v>1</v>
+      </c>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="62"/>
+      <c r="A27" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="34">
         <v>42816</v>
       </c>
-      <c r="E27" s="44" t="str">
+      <c r="E27" s="43" t="str">
         <f t="shared" si="1"/>
         <v>mercredi</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="54"/>
+      <c r="F27" s="33">
+        <v>1</v>
+      </c>
+      <c r="G27" s="50"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
+      <c r="A28" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="34">
-        <v>42817</v>
-      </c>
-      <c r="E28" s="44" t="str">
+        <v>42818</v>
+      </c>
+      <c r="E28" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>vendredi</v>
+      </c>
+      <c r="F28" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="50"/>
+    </row>
+    <row r="29" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="41"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="34">
+        <v>42822</v>
+      </c>
+      <c r="E30" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>mardi</v>
+      </c>
+      <c r="F30" s="33">
+        <v>1</v>
+      </c>
+      <c r="G30" s="51">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="34">
+        <v>42823</v>
+      </c>
+      <c r="E31" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>mercredi</v>
+      </c>
+      <c r="F31" s="33">
+        <v>1</v>
+      </c>
+      <c r="G31" s="52"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="34">
+        <v>42824</v>
+      </c>
+      <c r="E32" s="43" t="str">
         <f t="shared" si="1"/>
         <v>jeudi</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="54"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="34">
-        <v>42818</v>
-      </c>
-      <c r="E29" s="44" t="str">
+      <c r="F32" s="33">
+        <v>1</v>
+      </c>
+      <c r="G32" s="52"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="34">
+        <v>42825</v>
+      </c>
+      <c r="E33" s="43" t="str">
         <f t="shared" si="1"/>
         <v>vendredi</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F33" s="33">
         <v>1</v>
       </c>
-      <c r="G29" s="54"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="34">
-        <v>42819</v>
-      </c>
-      <c r="E30" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>samedi</v>
-      </c>
-      <c r="F30" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="31" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="41"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="34">
-        <v>42779</v>
-      </c>
-      <c r="E32" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>lundi</v>
-      </c>
-      <c r="F32" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G32" s="53">
-        <f t="shared" si="2"/>
+      <c r="G33" s="53"/>
+    </row>
+    <row r="34" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="41"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="34">
-        <v>42782</v>
-      </c>
-      <c r="E33" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>jeudi</v>
-      </c>
-      <c r="F33" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G33" s="54"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="34">
-        <v>42783</v>
-      </c>
-      <c r="E34" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>vendredi</v>
-      </c>
-      <c r="F34" s="33">
-        <v>1</v>
-      </c>
-      <c r="G34" s="55"/>
-    </row>
-    <row r="35" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="41"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="34">
-        <v>42779</v>
-      </c>
-      <c r="E36" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>lundi</v>
-      </c>
-      <c r="F36" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G36" s="53">
-        <f t="shared" ref="G36" si="4">WEEKNUM(D36,2)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="34">
-        <v>42782</v>
-      </c>
-      <c r="E37" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>jeudi</v>
-      </c>
-      <c r="F37" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G37" s="54"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="34">
-        <v>42783</v>
-      </c>
-      <c r="E38" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>vendredi</v>
-      </c>
-      <c r="F38" s="33">
-        <v>1</v>
-      </c>
-      <c r="G38" s="55"/>
-    </row>
-    <row r="39" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="41"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="34">
-        <v>42786</v>
-      </c>
-      <c r="E40" s="44" t="str">
-        <f>TEXT(D40,"jjjj")</f>
-        <v>lundi</v>
-      </c>
-      <c r="F40" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G40" s="50">
-        <f t="shared" ref="G40" si="5">WEEKNUM(D40,2)</f>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="34">
-        <v>42787</v>
-      </c>
-      <c r="E41" s="44" t="str">
-        <f>TEXT(D41,"jjjj")</f>
-        <v>mardi</v>
-      </c>
-      <c r="F41" s="33">
-        <v>1</v>
-      </c>
-      <c r="G41" s="50"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="34">
-        <v>42788</v>
-      </c>
-      <c r="E42" s="44" t="str">
-        <f>TEXT(D42,"jjjj")</f>
-        <v>mercredi</v>
-      </c>
-      <c r="F42" s="33">
-        <v>1</v>
-      </c>
-      <c r="G42" s="50"/>
-    </row>
-    <row r="43" spans="1:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="41"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="34">
-        <v>42793</v>
-      </c>
-      <c r="E44" s="44" t="str">
-        <f>TEXT(D44,"jjjj")</f>
-        <v>lundi</v>
-      </c>
-      <c r="F44" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G44" s="50">
-        <f t="shared" ref="G44" si="6">WEEKNUM(D44,2)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="34">
-        <v>42794</v>
-      </c>
-      <c r="E45" s="44" t="str">
-        <f>TEXT(D45,"jjjj")</f>
-        <v>mardi</v>
-      </c>
-      <c r="F45" s="33">
-        <v>1</v>
-      </c>
-      <c r="G45" s="50"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>1</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>2</v>
+      <c r="A53" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
-      <c r="D53" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="D53" s="12"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="25">
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A14:C14"/>
@@ -1777,33 +1598,8 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G25:G30"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
   </mergeCells>
   <pageMargins left="0.37137681159420288" right="0.15625" top="0.48958333333333331" bottom="0.33088235294117646" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
